--- a/MT_302/MT_302.xlsx
+++ b/MT_302/MT_302.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
   <si>
     <t>time</t>
   </si>
@@ -100,6 +100,174 @@
   </si>
   <si>
     <t>Conversion (X2)</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>Water Lost</t>
+  </si>
+  <si>
+    <t>NaOH required</t>
+  </si>
+  <si>
+    <t>Volume remaining</t>
+  </si>
+  <si>
+    <t>Conversion (X1)</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>NaOH required</t>
+  </si>
+  <si>
+    <t>Conversion (X2)</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Conversion (X1)</t>
+  </si>
+  <si>
+    <t>Conversion (X2)</t>
+  </si>
+  <si>
+    <t>Enhancement Factor</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>Water Lost</t>
+  </si>
+  <si>
+    <t>NaOH required</t>
+  </si>
+  <si>
+    <t>Volume remaining</t>
+  </si>
+  <si>
+    <t>Conversion (X1)</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>NaOH required</t>
+  </si>
+  <si>
+    <t>Conversion (X2)</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Conversion (X1)</t>
+  </si>
+  <si>
+    <t>Conversion (X2)</t>
+  </si>
+  <si>
+    <t>Enhancement Factor</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>Water Lost</t>
+  </si>
+  <si>
+    <t>NaOH required</t>
+  </si>
+  <si>
+    <t>Volume remaining</t>
+  </si>
+  <si>
+    <t>Conversion (X1)</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>NaOH required</t>
+  </si>
+  <si>
+    <t>Conversion (X2)</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Conversion (X1)</t>
+  </si>
+  <si>
+    <t>Conversion (X2)</t>
+  </si>
+  <si>
+    <t>Enhancement Factor</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>Water Lost</t>
+  </si>
+  <si>
+    <t>NaOH required</t>
+  </si>
+  <si>
+    <t>Volume remaining</t>
+  </si>
+  <si>
+    <t>Conversion (X1)</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>NaOH required</t>
+  </si>
+  <si>
+    <t>Conversion (X2)</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Conversion (X1)</t>
+  </si>
+  <si>
+    <t>Conversion (X2)</t>
+  </si>
+  <si>
+    <t>Enhancement Factor</t>
   </si>
   <si>
     <t>Time</t>
@@ -246,7 +414,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -267,11 +435,23 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -286,6 +466,18 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -616,22 +808,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>55</v>
+        <v>111</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>57</v>
+        <v>113</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>58</v>
+        <v>114</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>59</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2">
@@ -832,16 +1024,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>60</v>
+        <v>116</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>61</v>
+        <v>117</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>62</v>
+        <v>118</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>63</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2">
@@ -987,16 +1179,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>64</v>
+        <v>120</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>65</v>
+        <v>121</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>66</v>
+        <v>122</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>67</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2">
